--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafar\Desktop\botWhatsapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Python-Whatsapp-Mensagens-Automatizadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797D99C0-030A-48DE-84F3-5090CFB8F0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B683163-1D5B-42C1-AC2F-6091728BCAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3732" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -46,6 +46,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -69,9 +77,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -290,15 +299,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -309,17 +318,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -1,60 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Python-Whatsapp-Mensagens-Automatizadas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B683163-1D5B-42C1-AC2F-6091728BCAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="3732" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Página1" sheetId="1" r:id="rId1"/>
+    <sheet name="Página1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>telefone</t>
-  </si>
-  <si>
-    <t>vencimento</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t xml:space="preserve">nome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">telefone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vencimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rogerio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rogerio Aparecido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rogerio Farinazze</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,7 +88,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -74,126 +96,156 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -201,33 +253,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -240,13 +283,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -256,15 +293,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -272,7 +307,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -280,64 +314,158 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="A2:C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="17.45"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>5519981586085</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>5519981586085</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>5519981586085</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="D5" s="2"/>
-    </row>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>